--- a/frontend/Zakah-calc/public/templetes/balance_sheet_templete.xlsx
+++ b/frontend/Zakah-calc/public/templetes/balance_sheet_templete.xlsx
@@ -2,21 +2,35 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abdelrahman Ali\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Acadmy\Academy Project\git\Zakah_Project\frontend\Zakah-calc\public\templetes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E33A36-5CF0-45F6-A0C0-2F75A0B1A618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF9996F-35C1-420E-A05D-9CC79582B3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DA7D68EF-F2F7-45B9-BAFB-42CC90874FB8}"/>
   </bookViews>
   <sheets>
-    <sheet name="البيانات المالية" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
     </ext>
@@ -25,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Cash Equivalents</t>
   </si>
@@ -49,6 +63,18 @@
   </si>
   <si>
     <t>Yearly Long Term Liabilities</t>
+  </si>
+  <si>
+    <t>Net Profit</t>
+  </si>
+  <si>
+    <t>Generating Fixed Assets</t>
+  </si>
+  <si>
+    <t>Contra Assets</t>
+  </si>
+  <si>
+    <t>Provisions Under Liabilities</t>
   </si>
 </sst>
 </file>
@@ -59,7 +85,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -91,7 +117,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -114,44 +140,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -178,14 +204,32 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -212,6 +256,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -223,190 +285,189 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
+            <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A57CE91-45F4-459C-8105-5B627B480FFE}">
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -431,22 +492,34 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -455,10 +528,23 @@
         <v>0</v>
       </c>
       <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>